--- a/assets/New Microsoft Excel Worksheet.xlsx
+++ b/assets/New Microsoft Excel Worksheet.xlsx
@@ -14,14 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>empty armor</t>
-  </si>
-  <si>
-    <t>blank.png</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,29 +354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
